--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\GunBattleRoyale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6142B9-956C-4D2D-A654-E7969AF4E17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE43C35-9F21-4131-84FA-28F9AE4BF9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="72">
   <si>
     <t>载弹</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,6 +269,50 @@
   </si>
   <si>
     <t>机枪自带瞄准时的50%加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原版腰射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原版开镜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新版腰射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新版开镜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采用新的散布规则后，散布=射程/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扎针疾跑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散布折扣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞄准折扣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霰弹枪有单独机制</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -319,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -335,6 +379,15 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -616,16 +669,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.6640625" style="3"/>
+    <col min="2" max="3" width="8.6640625" style="3"/>
+    <col min="4" max="4" width="8.6640625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
@@ -1126,13 +1181,26 @@
       <c r="C14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
@@ -1514,7 +1582,232 @@
         <v>1</v>
       </c>
     </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="8">
+        <f>H2</f>
+        <v>8</v>
+      </c>
+      <c r="C27" s="8">
+        <f>B27/2</f>
+        <v>4</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="8">
+        <f t="shared" ref="B28:B33" si="4">H3</f>
+        <v>4</v>
+      </c>
+      <c r="C28" s="8">
+        <f t="shared" ref="C28:C33" si="5">B28/2</f>
+        <v>2</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" ref="D28:D33" si="6">E28*0.6</f>
+        <v>1.5</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" ref="E28:E33" si="7">L3*$H$15</f>
+        <v>2.5</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" ref="F28:F33" si="8">D28*$J$15</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" ref="G28:G33" si="9">E28*$J$15</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="8">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C29" s="8">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="8"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="3">
+        <f t="shared" si="6"/>
+        <v>0.6</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C31" s="8">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="8"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C32" s="8">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="E32" s="3">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="8"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C33" s="8">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" si="8"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="D27:G27"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\GunBattleRoyale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE43C35-9F21-4131-84FA-28F9AE4BF9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E23CB1-C1FD-486F-87FA-4A6118030071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="78">
   <si>
     <t>载弹</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -313,6 +313,30 @@
   </si>
   <si>
     <t>霰弹枪有单独机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低下坠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低后座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高射速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更快瞄准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低散布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂直后座</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,10 +405,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -672,7 +696,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1583,28 +1607,37 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="7" t="s">
+      <c r="E25" s="7"/>
+      <c r="F25" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G25" s="7"/>
+      <c r="G25" s="8"/>
+      <c r="J25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
       <c r="D26" s="3" t="s">
         <v>67</v>
       </c>
@@ -1616,36 +1649,54 @@
       </c>
       <c r="G26" s="3" t="s">
         <v>68</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="6">
         <f>H2</f>
         <v>8</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="6">
         <f>B27/2</f>
         <v>4</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="I27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="6">
         <f t="shared" ref="B28:B33" si="4">H3</f>
         <v>4</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="6">
         <f t="shared" ref="C28:C33" si="5">B28/2</f>
         <v>2</v>
       </c>
@@ -1665,16 +1716,28 @@
         <f t="shared" ref="G28:G33" si="9">E28*$J$15</f>
         <v>0.25</v>
       </c>
+      <c r="I28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -1694,16 +1757,28 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="C30" s="8"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="3">
         <f t="shared" si="6"/>
         <v>0.6</v>
@@ -1716,11 +1791,11 @@
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="6">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
@@ -1745,11 +1820,11 @@
       <c r="A32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="6">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
@@ -1774,11 +1849,11 @@
       <c r="A33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="6">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
@@ -1801,12 +1876,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="D27:G27"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="F25:G25"/>
-    <mergeCell ref="D27:G27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\GunBattleRoyale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E23CB1-C1FD-486F-87FA-4A6118030071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1149DC35-BCD5-48E0-9442-03437FC9E300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="86">
   <si>
     <t>载弹</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -337,6 +337,38 @@
   </si>
   <si>
     <t>垂直后座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤凰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2x小电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2x小血</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -693,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1815,6 +1847,24 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
+      <c r="J31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
@@ -1844,8 +1894,29 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I32" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J32" s="3">
+        <v>10</v>
+      </c>
+      <c r="K32" s="3">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
+        <v>2</v>
+      </c>
+      <c r="N32" s="3">
+        <v>1</v>
+      </c>
+      <c r="O32" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>6</v>
       </c>
@@ -1872,6 +1943,53 @@
       <c r="G33" s="3">
         <f t="shared" si="9"/>
         <v>1</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J33" s="3">
+        <v>8</v>
+      </c>
+      <c r="K33" s="3">
+        <v>8</v>
+      </c>
+      <c r="L33" s="3">
+        <v>20</v>
+      </c>
+      <c r="M33" s="3">
+        <v>20</v>
+      </c>
+      <c r="N33" s="3">
+        <v>40</v>
+      </c>
+      <c r="O33" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J34" s="3">
+        <f>J32*J33</f>
+        <v>80</v>
+      </c>
+      <c r="K34" s="3">
+        <f t="shared" ref="K34:O34" si="10">K32*K33</f>
+        <v>40</v>
+      </c>
+      <c r="L34" s="3">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="M34" s="3">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="N34" s="3">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="O34" s="3">
+        <f t="shared" si="10"/>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\GunBattleRoyale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1149DC35-BCD5-48E0-9442-03437FC9E300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B030F54-A3D3-478B-831F-0B29BC50E121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
   <si>
     <t>载弹</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,10 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手枪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>冲锋枪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,10 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>射击间隔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,10 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>枪管改装，降低20%/40%子弹散布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>垂直握把</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,10 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>降低20%/40%后坐力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>枪管</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,14 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提高20%/40%瞄准速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊子弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分两种缩放比例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -232,38 +208,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>克雷贝尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R301</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30-30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近战DPS30，中距离DPS25，远距离DPS20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>射程x散布=100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>后座=射击间隔，射击间隔较久的/3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -316,30 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>降低下坠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低后座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提高射速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更快瞄准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低散布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>垂直后座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大电</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -369,6 +289,26 @@
   </si>
   <si>
     <t>2x小血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滋崩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪管改装，降低20%/40%子弹散布，降低0.01/0.02子弹下坠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高20%/40%瞄准速度，降低20%/40%后座力偏转角度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低20%/40%后坐力，单发武器降低10%/20%射击间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战DPS25，中距离DPS20，远距离DPS15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -725,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -739,15 +679,15 @@
     <col min="5" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>0</v>
@@ -765,60 +705,57 @@
         <v>4</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F2" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="3">
-        <v>4</v>
+        <v>3.33</v>
       </c>
       <c r="H2" s="3">
         <v>8</v>
       </c>
       <c r="I2" s="3">
-        <v>18</v>
+        <v>12.5</v>
       </c>
       <c r="J2" s="3">
         <v>5</v>
@@ -832,10 +769,10 @@
       </c>
       <c r="M2" s="3">
         <f>20/D2*I2</f>
-        <v>30</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>54</v>
+        <v>25</v>
+      </c>
+      <c r="N2" s="3">
+        <v>1</v>
       </c>
       <c r="O2" s="3">
         <v>1</v>
@@ -843,16 +780,13 @@
       <c r="P2" s="3">
         <v>1</v>
       </c>
-      <c r="Q2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -870,10 +804,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="3">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="I3" s="3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="J3" s="3">
         <v>5</v>
@@ -887,10 +821,10 @@
       </c>
       <c r="M3" s="3">
         <f>20/D3*I3</f>
-        <v>30</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>53</v>
+        <v>25</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1</v>
       </c>
       <c r="O3" s="3">
         <v>1</v>
@@ -898,16 +832,13 @@
       <c r="P3" s="3">
         <v>1</v>
       </c>
-      <c r="Q3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -925,10 +856,10 @@
         <v>3</v>
       </c>
       <c r="H4" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I4" s="3">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="J4" s="3">
         <v>5</v>
@@ -942,10 +873,10 @@
       </c>
       <c r="M4" s="3">
         <f>20/D4*I4</f>
-        <v>25</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>52</v>
+        <v>20</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1</v>
       </c>
       <c r="O4" s="3">
         <v>1</v>
@@ -956,19 +887,16 @@
       <c r="Q4" s="3">
         <v>1</v>
       </c>
-      <c r="R4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -983,10 +911,10 @@
         <v>0.5</v>
       </c>
       <c r="H5" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I5" s="3">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="J5" s="3">
         <v>5</v>
@@ -1000,24 +928,21 @@
       </c>
       <c r="M5" s="3">
         <f>20/D5*I5</f>
-        <v>25</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="3">
         <v>8</v>
@@ -1026,13 +951,13 @@
         <v>2</v>
       </c>
       <c r="G6" s="3">
-        <v>6</v>
+        <v>6.66</v>
       </c>
       <c r="H6" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I6" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J6" s="3">
         <v>10</v>
@@ -1045,11 +970,11 @@
         <v>100</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" ref="M6:M7" si="1">20/D6*I6</f>
-        <v>20</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>56</v>
+        <f t="shared" ref="M6:M8" si="1">20/D6*I6</f>
+        <v>15</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1</v>
       </c>
       <c r="O6" s="3">
         <v>1</v>
@@ -1060,37 +985,34 @@
       <c r="Q6" s="3">
         <v>1</v>
       </c>
-      <c r="R6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D7" s="3">
         <v>30</v>
       </c>
       <c r="E7" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="3">
         <v>10</v>
       </c>
       <c r="H7" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I7" s="3">
-        <v>30</v>
+        <v>22.5</v>
       </c>
       <c r="J7" s="3">
         <v>10</v>
@@ -1104,48 +1026,45 @@
       </c>
       <c r="M7" s="3">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>51</v>
+        <v>15</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1</v>
       </c>
       <c r="O7" s="3">
         <v>1</v>
       </c>
-      <c r="P7" s="3">
-        <v>1</v>
-      </c>
-      <c r="R7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D8" s="3">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E8" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F8" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J8" s="3">
         <v>10</v>
@@ -1158,848 +1077,378 @@
         <v>100</v>
       </c>
       <c r="M8" s="3">
-        <f>20/D8*I8</f>
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="3">
-        <v>1</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="J17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="M17" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="N17" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="O17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3">
-        <v>10</v>
-      </c>
-      <c r="E18" s="3">
-        <v>8</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2</v>
-      </c>
-      <c r="G18" s="3">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>20</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="J18" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K18" s="3">
         <v>5</v>
       </c>
       <c r="L18" s="3">
-        <f>J18*K18</f>
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="M18" s="3">
-        <f>20/D18*I18</f>
-        <v>40</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>54</v>
+        <v>2</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1</v>
       </c>
       <c r="O18" s="3">
-        <v>1</v>
-      </c>
-      <c r="P18" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3">
-        <v>2</v>
-      </c>
-      <c r="E19" s="3">
-        <v>50</v>
-      </c>
-      <c r="F19" s="3">
-        <v>10</v>
-      </c>
-      <c r="G19" s="3">
-        <v>2</v>
-      </c>
-      <c r="H19" s="3">
-        <v>3</v>
-      </c>
-      <c r="I19" s="3">
-        <v>4</v>
-      </c>
-      <c r="J19" s="3">
-        <v>5</v>
-      </c>
-      <c r="K19" s="3">
-        <v>5</v>
-      </c>
-      <c r="L19" s="3">
-        <f>J19*K19</f>
-        <v>25</v>
-      </c>
-      <c r="M19" s="3">
-        <f>20/D19*I19</f>
-        <v>40</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O19" s="3">
-        <v>1</v>
-      </c>
-      <c r="P19" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
-        <v>30</v>
-      </c>
-      <c r="F20" s="3">
-        <v>6</v>
-      </c>
-      <c r="G20" s="3">
-        <v>2</v>
-      </c>
-      <c r="H20" s="3">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="J20" s="3">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
-        <v>10</v>
-      </c>
-      <c r="L20" s="3">
-        <f>J20*K20</f>
-        <v>50</v>
-      </c>
-      <c r="M20" s="3">
-        <f>20/D20*I20</f>
-        <v>30</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O20" s="3">
-        <v>1</v>
-      </c>
-      <c r="P20" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>1</v>
-      </c>
-      <c r="R20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3">
-        <v>100</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="J21" s="3">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
-        <v>10</v>
-      </c>
-      <c r="L21" s="3">
-        <f>J21*K21</f>
-        <v>50</v>
-      </c>
-      <c r="M21" s="3">
-        <f>20/D21*I21</f>
-        <v>30</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3">
-        <v>20</v>
-      </c>
-      <c r="E22" s="3">
-        <v>12</v>
-      </c>
-      <c r="F22" s="3">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3">
-        <v>7</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1</v>
-      </c>
-      <c r="I22" s="3">
-        <v>20</v>
-      </c>
-      <c r="J22" s="3">
-        <v>10</v>
-      </c>
-      <c r="K22" s="3">
-        <v>10</v>
-      </c>
-      <c r="L22" s="3">
-        <f t="shared" ref="L22:L23" si="2">J22*K22</f>
-        <v>100</v>
-      </c>
-      <c r="M22" s="3">
-        <f t="shared" ref="M22:M23" si="3">20/D22*I22</f>
-        <v>20</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O22" s="3">
-        <v>1</v>
-      </c>
-      <c r="P22" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>1</v>
-      </c>
-      <c r="R22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="3">
-        <v>30</v>
-      </c>
-      <c r="E23" s="3">
-        <v>4</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3">
-        <v>10</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1</v>
-      </c>
-      <c r="I23" s="3">
-        <v>30</v>
-      </c>
-      <c r="J23" s="3">
-        <v>10</v>
-      </c>
-      <c r="K23" s="3">
-        <v>10</v>
-      </c>
-      <c r="L23" s="3">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="M23" s="3">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O23" s="3">
-        <v>1</v>
-      </c>
-      <c r="P23" s="3">
-        <v>1</v>
-      </c>
-      <c r="R23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G25" s="8"/>
-      <c r="J25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="6">
+        <v>43</v>
+      </c>
+      <c r="B19" s="6">
         <f>H2</f>
         <v>8</v>
       </c>
-      <c r="C27" s="6">
-        <f>B27/2</f>
+      <c r="C19" s="6">
+        <f>B19/2</f>
         <v>4</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="I27" s="3" t="s">
+      <c r="D19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="I19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19" s="3">
+        <v>8</v>
+      </c>
+      <c r="K19" s="3">
+        <v>8</v>
+      </c>
+      <c r="L19" s="3">
+        <v>20</v>
+      </c>
+      <c r="M19" s="3">
+        <v>20</v>
+      </c>
+      <c r="N19" s="3">
+        <v>40</v>
+      </c>
+      <c r="O19" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="6">
+        <f>H3</f>
+        <v>2.5</v>
+      </c>
+      <c r="C20" s="6">
+        <f t="shared" ref="C20:C24" si="2">B20/2</f>
+        <v>1.25</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20:D24" si="3">E20*0.6</f>
+        <v>1.5</v>
+      </c>
+      <c r="E20" s="3">
+        <f>L3*$J$14</f>
+        <v>2.5</v>
+      </c>
+      <c r="F20" s="3">
+        <f>D20*$L$14</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="G20" s="3">
+        <f>E20*$L$14</f>
+        <v>0.25</v>
+      </c>
+      <c r="J20" s="3">
+        <f>J18*J19</f>
+        <v>80</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" ref="K20:O20" si="4">K18*K19</f>
+        <v>40</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="M20" s="3">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="N20" s="3">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="O20" s="3">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="6">
+        <f>H4</f>
+        <v>5</v>
+      </c>
+      <c r="C21" s="6">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
+        <f>L4*$J$14</f>
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
+        <f>D21*$L$14</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="G21" s="3">
+        <f>E21*$L$14</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="6">
+        <f>H5</f>
+        <v>0.5</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="3">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="6">
-        <f t="shared" ref="B28:B33" si="4">H3</f>
-        <v>4</v>
-      </c>
-      <c r="C28" s="6">
-        <f t="shared" ref="C28:C33" si="5">B28/2</f>
-        <v>2</v>
-      </c>
-      <c r="D28" s="3">
-        <f t="shared" ref="D28:D33" si="6">E28*0.6</f>
-        <v>1.5</v>
-      </c>
-      <c r="E28" s="3">
-        <f t="shared" ref="E28:E33" si="7">L3*$H$15</f>
-        <v>2.5</v>
-      </c>
-      <c r="F28" s="3">
-        <f t="shared" ref="F28:F33" si="8">D28*$J$15</f>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="G28" s="3">
-        <f t="shared" ref="G28:G33" si="9">E28*$J$15</f>
-        <v>0.25</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="6">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="C29" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="D29" s="3">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="E29" s="3">
-        <f t="shared" si="7"/>
+      <c r="B23" s="6">
+        <f>H6</f>
+        <v>10</v>
+      </c>
+      <c r="C23" s="6">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F29" s="3">
-        <f t="shared" si="8"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="G29" s="3">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="D23" s="3">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="E23" s="3">
+        <f>L6*$J$14</f>
+        <v>10</v>
+      </c>
+      <c r="F23" s="3">
+        <f>D23*$L$14</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="G23" s="3">
+        <f>E23*$L$14</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="3">
-        <f t="shared" si="6"/>
-        <v>0.6</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="C31" s="6">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="D31" s="3">
-        <f t="shared" si="6"/>
+      <c r="B24" s="6">
+        <f>H7</f>
+        <v>10</v>
+      </c>
+      <c r="C24" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="E31" s="3">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="F31" s="3">
-        <f t="shared" si="8"/>
+      <c r="E24" s="3">
+        <f>L7*$J$14</f>
+        <v>10</v>
+      </c>
+      <c r="F24" s="3">
+        <f>D24*$L$14</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="G31" s="3">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="C32" s="6">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="D32" s="3">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="E32" s="3">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="F32" s="3">
-        <f t="shared" si="8"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="G32" s="3">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J32" s="3">
-        <v>10</v>
-      </c>
-      <c r="K32" s="3">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
-        <v>4</v>
-      </c>
-      <c r="M32" s="3">
-        <v>2</v>
-      </c>
-      <c r="N32" s="3">
-        <v>1</v>
-      </c>
-      <c r="O32" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="C33" s="6">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="D33" s="3">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="E33" s="3">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="F33" s="3">
-        <f t="shared" si="8"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="G33" s="3">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="J33" s="3">
-        <v>8</v>
-      </c>
-      <c r="K33" s="3">
-        <v>8</v>
-      </c>
-      <c r="L33" s="3">
-        <v>20</v>
-      </c>
-      <c r="M33" s="3">
-        <v>20</v>
-      </c>
-      <c r="N33" s="3">
-        <v>40</v>
-      </c>
-      <c r="O33" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="J34" s="3">
-        <f>J32*J33</f>
-        <v>80</v>
-      </c>
-      <c r="K34" s="3">
-        <f t="shared" ref="K34:O34" si="10">K32*K33</f>
-        <v>40</v>
-      </c>
-      <c r="L34" s="3">
-        <f t="shared" si="10"/>
-        <v>80</v>
-      </c>
-      <c r="M34" s="3">
-        <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="N34" s="3">
-        <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="O34" s="3">
-        <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
+      <c r="G24" s="3">
+        <f>E24*$L$14</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="F17:G17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2023,7 +1472,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1">
         <v>2</v>
@@ -2229,18 +1678,18 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1">
         <v>-5</v>
@@ -2248,7 +1697,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1">
         <v>-4</v>
@@ -2256,7 +1705,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B18" s="1">
         <v>-3</v>
@@ -2264,7 +1713,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1">
         <v>-2</v>
@@ -2272,7 +1721,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B20" s="1">
         <v>-1</v>
@@ -2280,7 +1729,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\GunBattleRoyale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B030F54-A3D3-478B-831F-0B29BC50E121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD83CEFE-7BEE-48DF-A2BD-51F3BD8E3205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -668,7 +668,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -752,7 +752,7 @@
         <v>3.33</v>
       </c>
       <c r="H2" s="3">
-        <v>8</v>
+        <v>12.5</v>
       </c>
       <c r="I2" s="3">
         <v>12.5</v>
@@ -1245,12 +1245,12 @@
         <v>43</v>
       </c>
       <c r="B19" s="6">
-        <f>H2</f>
-        <v>8</v>
+        <f t="shared" ref="B19:B24" si="2">H2</f>
+        <v>12.5</v>
       </c>
       <c r="C19" s="6">
         <f>B19/2</f>
-        <v>4</v>
+        <v>6.25</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>57</v>
@@ -1285,15 +1285,15 @@
         <v>6</v>
       </c>
       <c r="B20" s="6">
-        <f>H3</f>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
       <c r="C20" s="6">
-        <f t="shared" ref="C20:C24" si="2">B20/2</f>
+        <f t="shared" ref="C20:C24" si="3">B20/2</f>
         <v>1.25</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" ref="D20:D24" si="3">E20*0.6</f>
+        <f t="shared" ref="D20:D24" si="4">E20*0.6</f>
         <v>1.5</v>
       </c>
       <c r="E20" s="3">
@@ -1313,23 +1313,23 @@
         <v>80</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" ref="K20:O20" si="4">K18*K19</f>
+        <f t="shared" ref="K20:O20" si="5">K18*K19</f>
         <v>40</v>
       </c>
       <c r="L20" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="M20" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="N20" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="O20" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
     </row>
@@ -1338,15 +1338,15 @@
         <v>13</v>
       </c>
       <c r="B21" s="6">
-        <f>H4</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="C21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E21" s="3">
@@ -1367,12 +1367,12 @@
         <v>31</v>
       </c>
       <c r="B22" s="6">
-        <f>H5</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="E22" s="3">
@@ -1384,15 +1384,15 @@
         <v>7</v>
       </c>
       <c r="B23" s="6">
-        <f>H6</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="E23" s="3">
@@ -1413,15 +1413,15 @@
         <v>8</v>
       </c>
       <c r="B24" s="6">
-        <f>H7</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C24" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="E24" s="3">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\GunBattleRoyale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD83CEFE-7BEE-48DF-A2BD-51F3BD8E3205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F599FCA6-6583-4510-91E2-0DBFE52113DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -668,7 +668,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -862,14 +862,14 @@
         <v>3</v>
       </c>
       <c r="J4" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K4" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L4" s="3">
         <f>J4*K4</f>
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="M4" s="3">
         <f>20/D4*I4</f>
@@ -917,14 +917,14 @@
         <v>1</v>
       </c>
       <c r="J5" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K5" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L5" s="3">
         <f>J5*K5</f>
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="M5" s="3">
         <f>20/D5*I5</f>
@@ -1347,19 +1347,19 @@
       </c>
       <c r="D21" s="3">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>3.84</v>
       </c>
       <c r="E21" s="3">
         <f>L4*$J$14</f>
-        <v>5</v>
+        <v>6.4</v>
       </c>
       <c r="F21" s="3">
         <f>D21*$L$14</f>
-        <v>0.30000000000000004</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="G21" s="3">
         <f>E21*$L$14</f>
-        <v>0.5</v>
+        <v>0.64000000000000012</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\GunBattleRoyale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F599FCA6-6583-4510-91E2-0DBFE52113DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A10BC35-3984-4299-B663-A53476A93BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -668,7 +668,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1049,7 +1049,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="3">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E8" s="3">
         <v>12</v>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="M8" s="3">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\GunBattleRoyale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A10BC35-3984-4299-B663-A53476A93BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DD3991-2330-4916-B6C6-097F9F89EAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
   <si>
     <t>载弹</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,6 +309,26 @@
   </si>
   <si>
     <t>近战DPS25，中距离DPS20，远距离DPS15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无衰减</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复仇女神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四连发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -665,10 +685,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -679,7 +700,7 @@
     <col min="5" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
@@ -717,19 +738,22 @@
         <v>11</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>43</v>
       </c>
@@ -771,17 +795,17 @@
         <f>20/D2*I2</f>
         <v>25</v>
       </c>
-      <c r="N2" s="3">
-        <v>1</v>
-      </c>
       <c r="O2" s="3">
         <v>1</v>
       </c>
       <c r="P2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -823,17 +847,17 @@
         <f>20/D3*I3</f>
         <v>25</v>
       </c>
-      <c r="N3" s="3">
-        <v>1</v>
-      </c>
       <c r="O3" s="3">
         <v>1</v>
       </c>
       <c r="P3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -875,9 +899,6 @@
         <f>20/D4*I4</f>
         <v>20</v>
       </c>
-      <c r="N4" s="3">
-        <v>1</v>
-      </c>
       <c r="O4" s="3">
         <v>1</v>
       </c>
@@ -887,8 +908,11 @@
       <c r="Q4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -931,7 +955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -970,12 +994,9 @@
         <v>100</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" ref="M6:M8" si="1">20/D6*I6</f>
+        <f t="shared" ref="M6:M10" si="1">20/D6*I6</f>
         <v>15</v>
       </c>
-      <c r="N6" s="3">
-        <v>1</v>
-      </c>
       <c r="O6" s="3">
         <v>1</v>
       </c>
@@ -985,8 +1006,11 @@
       <c r="Q6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1028,17 +1052,17 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="N7" s="3">
-        <v>1</v>
-      </c>
       <c r="O7" s="3">
         <v>1</v>
       </c>
-      <c r="Q7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P7" s="3">
+        <v>1</v>
+      </c>
+      <c r="R7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>66</v>
       </c>
@@ -1080,375 +1104,491 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N8" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>18</v>
+      </c>
+      <c r="E9" s="3">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>6</v>
+      </c>
+      <c r="H9" s="3">
+        <v>10</v>
+      </c>
+      <c r="I9" s="3">
+        <v>9</v>
+      </c>
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+      <c r="K9" s="3">
+        <v>10</v>
+      </c>
+      <c r="L9" s="3">
+        <f>J9*K9</f>
+        <v>100</v>
+      </c>
+      <c r="M9" s="3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3">
+        <v>32</v>
+      </c>
+      <c r="F10" s="3">
+        <v>8</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3</v>
+      </c>
+      <c r="H10" s="3">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>12</v>
+      </c>
+      <c r="J10" s="3">
+        <v>8</v>
+      </c>
+      <c r="K10" s="3">
+        <v>8</v>
+      </c>
+      <c r="L10" s="3">
+        <f>J10*K10</f>
+        <v>64</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>1</v>
+      </c>
+      <c r="R10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J16" s="3">
         <v>0.1</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L16" s="3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8" t="s">
+      <c r="E19" s="7"/>
+      <c r="F19" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="J17" s="3" t="s">
+      <c r="G19" s="8"/>
+      <c r="J19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="O19" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="3" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J18" s="3">
-        <v>10</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="J20" s="3">
+        <v>10</v>
+      </c>
+      <c r="K20" s="3">
         <v>5</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L20" s="3">
         <v>4</v>
       </c>
-      <c r="M18" s="3">
-        <v>2</v>
-      </c>
-      <c r="N18" s="3">
-        <v>1</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="M20" s="3">
+        <v>2</v>
+      </c>
+      <c r="N20" s="3">
+        <v>1</v>
+      </c>
+      <c r="O20" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="6">
-        <f t="shared" ref="B19:B24" si="2">H2</f>
+      <c r="B21" s="6">
+        <f>H2</f>
         <v>12.5</v>
       </c>
-      <c r="C19" s="6">
-        <f>B19/2</f>
+      <c r="C21" s="6">
+        <f>B21/2</f>
         <v>6.25</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="I19" s="3" t="s">
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="I21" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J19" s="3">
-        <v>8</v>
-      </c>
-      <c r="K19" s="3">
-        <v>8</v>
-      </c>
-      <c r="L19" s="3">
+      <c r="J21" s="3">
+        <v>8</v>
+      </c>
+      <c r="K21" s="3">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3">
         <v>20</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M21" s="3">
         <v>20</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N21" s="3">
         <v>40</v>
       </c>
-      <c r="O19" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="O21" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B22" s="6">
+        <f>H3</f>
+        <v>2.5</v>
+      </c>
+      <c r="C22" s="6">
+        <f t="shared" ref="C22:C26" si="2">B22/2</f>
+        <v>1.25</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" ref="D22:D26" si="3">E22*0.6</f>
+        <v>1.5</v>
+      </c>
+      <c r="E22" s="3">
+        <f>L3*$J$16</f>
+        <v>2.5</v>
+      </c>
+      <c r="F22" s="3">
+        <f>D22*$L$16</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="G22" s="3">
+        <f>E22*$L$16</f>
+        <v>0.25</v>
+      </c>
+      <c r="J22" s="3">
+        <f>J20*J21</f>
+        <v>80</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" ref="K22:O22" si="4">K20*K21</f>
+        <v>40</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="M22" s="3">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="N22" s="3">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="O22" s="3">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="6">
+        <f>H4</f>
+        <v>5</v>
+      </c>
+      <c r="C23" s="6">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="C20" s="6">
-        <f t="shared" ref="C20:C24" si="3">B20/2</f>
-        <v>1.25</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" ref="D20:D24" si="4">E20*0.6</f>
-        <v>1.5</v>
-      </c>
-      <c r="E20" s="3">
-        <f>L3*$J$14</f>
-        <v>2.5</v>
-      </c>
-      <c r="F20" s="3">
-        <f>D20*$L$14</f>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="G20" s="3">
-        <f>E20*$L$14</f>
-        <v>0.25</v>
-      </c>
-      <c r="J20" s="3">
-        <f>J18*J19</f>
-        <v>80</v>
-      </c>
-      <c r="K20" s="3">
-        <f t="shared" ref="K20:O20" si="5">K18*K19</f>
-        <v>40</v>
-      </c>
-      <c r="L20" s="3">
-        <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="M20" s="3">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="N20" s="3">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="O20" s="3">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="6">
+      <c r="D23" s="3">
+        <f t="shared" si="3"/>
+        <v>3.84</v>
+      </c>
+      <c r="E23" s="3">
+        <f>L4*$J$16</f>
+        <v>6.4</v>
+      </c>
+      <c r="F23" s="3">
+        <f>D23*$L$16</f>
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="G23" s="3">
+        <f>E23*$L$16</f>
+        <v>0.64000000000000012</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="6">
+        <f>H5</f>
+        <v>0.5</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="3">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="6">
+        <f>H6</f>
+        <v>10</v>
+      </c>
+      <c r="C25" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="C21" s="6">
+      <c r="D25" s="3">
         <f t="shared" si="3"/>
-        <v>2.5</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="4"/>
-        <v>3.84</v>
-      </c>
-      <c r="E21" s="3">
-        <f>L4*$J$14</f>
-        <v>6.4</v>
-      </c>
-      <c r="F21" s="3">
-        <f>D21*$L$14</f>
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="G21" s="3">
-        <f>E21*$L$14</f>
-        <v>0.64000000000000012</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="6">
+        <v>6</v>
+      </c>
+      <c r="E25" s="3">
+        <f>L6*$J$16</f>
+        <v>10</v>
+      </c>
+      <c r="F25" s="3">
+        <f>D25*$L$16</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="G25" s="3">
+        <f>E25*$L$16</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="6">
+        <f>H7</f>
+        <v>10</v>
+      </c>
+      <c r="C26" s="6">
         <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="3">
-        <f t="shared" si="4"/>
-        <v>0.6</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="6">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="C23" s="6">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="D23" s="3">
-        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="E23" s="3">
-        <f>L6*$J$14</f>
-        <v>10</v>
-      </c>
-      <c r="F23" s="3">
-        <f>D23*$L$14</f>
+      <c r="E26" s="3">
+        <f>L7*$J$16</f>
+        <v>10</v>
+      </c>
+      <c r="F26" s="3">
+        <f>D26*$L$16</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="G23" s="3">
-        <f>E23*$L$14</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="6">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="C24" s="6">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="D24" s="3">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="E24" s="3">
-        <f>L7*$J$14</f>
-        <v>10</v>
-      </c>
-      <c r="F24" s="3">
-        <f>D24*$L$14</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="G24" s="3">
-        <f>E24*$L$14</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="G26" s="3">
+        <f>E26*$L$16</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="F19:G19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\GunBattleRoyale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DD3991-2330-4916-B6C6-097F9F89EAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC1B80A-1A74-4213-AF3C-97C8E0DCDEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="75">
   <si>
     <t>载弹</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,10 +201,6 @@
   </si>
   <si>
     <t>霰弹枪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法装填</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -688,8 +684,8 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -738,7 +734,7 @@
         <v>11</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>19</v>
@@ -859,86 +855,68 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3">
-        <v>30</v>
-      </c>
-      <c r="F4" s="3">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="G4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="J4" s="3">
         <v>5</v>
       </c>
-      <c r="I4" s="3">
-        <v>3</v>
-      </c>
-      <c r="J4" s="3">
-        <v>8</v>
-      </c>
       <c r="K4" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L4" s="3">
         <f>J4*K4</f>
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="M4" s="3">
         <f>20/D4*I4</f>
-        <v>20</v>
-      </c>
-      <c r="O4" s="3">
-        <v>1</v>
-      </c>
-      <c r="P4" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>1</v>
-      </c>
-      <c r="R4" s="3">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>16</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
       </c>
       <c r="D5" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" s="3">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G5" s="3">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H5" s="3">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I5" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" s="3">
         <v>8</v>
@@ -954,48 +932,63 @@
         <f>20/D5*I5</f>
         <v>20</v>
       </c>
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>1</v>
+      </c>
+      <c r="R5" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3">
+        <v>32</v>
+      </c>
+      <c r="F6" s="3">
+        <v>8</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3</v>
+      </c>
+      <c r="H6" s="3">
+        <v>5</v>
+      </c>
+      <c r="I6" s="3">
+        <v>12</v>
+      </c>
+      <c r="J6" s="3">
+        <v>8</v>
+      </c>
+      <c r="K6" s="3">
+        <v>8</v>
+      </c>
+      <c r="L6" s="3">
+        <f>J6*K6</f>
+        <v>64</v>
+      </c>
+      <c r="M6" s="3">
+        <f>20/D6*I6</f>
         <v>20</v>
       </c>
-      <c r="E6" s="3">
-        <v>8</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2</v>
-      </c>
-      <c r="G6" s="3">
-        <v>6.66</v>
-      </c>
-      <c r="H6" s="3">
-        <v>10</v>
-      </c>
-      <c r="I6" s="3">
-        <v>15</v>
-      </c>
-      <c r="J6" s="3">
-        <v>10</v>
-      </c>
-      <c r="K6" s="3">
-        <v>10</v>
-      </c>
-      <c r="L6" s="3">
-        <f t="shared" ref="L6:L7" si="0">J6*K6</f>
-        <v>100</v>
-      </c>
-      <c r="M6" s="3">
-        <f t="shared" ref="M6:M10" si="1">20/D6*I6</f>
-        <v>15</v>
+      <c r="N6" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="O6" s="3">
         <v>1</v>
@@ -1012,146 +1005,140 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>100</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2</v>
+      </c>
+      <c r="J7" s="3">
+        <v>8</v>
+      </c>
+      <c r="K7" s="3">
+        <v>8</v>
+      </c>
+      <c r="L7" s="3">
+        <f>J7*K7</f>
+        <v>64</v>
+      </c>
+      <c r="M7" s="3">
+        <f>20/D7*I7</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3">
+        <v>6.66</v>
+      </c>
+      <c r="H8" s="3">
+        <v>10</v>
+      </c>
+      <c r="I8" s="3">
+        <v>15</v>
+      </c>
+      <c r="J8" s="3">
+        <v>10</v>
+      </c>
+      <c r="K8" s="3">
+        <v>10</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" ref="L8:L9" si="0">J8*K8</f>
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" ref="M8:M10" si="1">20/D8*I8</f>
+        <v>15</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1</v>
+      </c>
+      <c r="R8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
         <v>30</v>
       </c>
-      <c r="E7" s="3">
-        <v>12</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>10</v>
-      </c>
-      <c r="H7" s="3">
-        <v>10</v>
-      </c>
-      <c r="I7" s="3">
-        <v>22.5</v>
-      </c>
-      <c r="J7" s="3">
-        <v>10</v>
-      </c>
-      <c r="K7" s="3">
-        <v>10</v>
-      </c>
-      <c r="L7" s="3">
+      <c r="E9" s="3">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>10</v>
+      </c>
+      <c r="H9" s="3">
+        <v>10</v>
+      </c>
+      <c r="I9" s="3">
+        <v>15</v>
+      </c>
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+      <c r="K9" s="3">
+        <v>10</v>
+      </c>
+      <c r="L9" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="M7" s="3">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="O7" s="3">
-        <v>1</v>
-      </c>
-      <c r="P7" s="3">
-        <v>1</v>
-      </c>
-      <c r="R7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="3">
-        <v>36</v>
-      </c>
-      <c r="E8" s="3">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>18</v>
-      </c>
-      <c r="J8" s="3">
-        <v>10</v>
-      </c>
-      <c r="K8" s="3">
-        <v>10</v>
-      </c>
-      <c r="L8" s="3">
-        <f>J8*K8</f>
-        <v>100</v>
-      </c>
-      <c r="M8" s="3">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>18</v>
-      </c>
-      <c r="E9" s="3">
-        <v>8</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2</v>
-      </c>
-      <c r="G9" s="3">
-        <v>6</v>
-      </c>
-      <c r="H9" s="3">
-        <v>10</v>
-      </c>
-      <c r="I9" s="3">
-        <v>9</v>
-      </c>
-      <c r="J9" s="3">
-        <v>10</v>
-      </c>
-      <c r="K9" s="3">
-        <v>10</v>
-      </c>
-      <c r="L9" s="3">
-        <f>J9*K9</f>
-        <v>100</v>
-      </c>
       <c r="M9" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O9" s="3">
         <v>1</v>
@@ -1159,66 +1146,62 @@
       <c r="P9" s="3">
         <v>1</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D10" s="3">
+        <v>36</v>
+      </c>
+      <c r="E10" s="3">
         <v>12</v>
       </c>
-      <c r="E10" s="3">
-        <v>32</v>
-      </c>
-      <c r="F10" s="3">
-        <v>8</v>
-      </c>
       <c r="G10" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J10" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K10" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L10" s="3">
         <f>J10*K10</f>
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="O10" s="3">
-        <v>1</v>
-      </c>
-      <c r="P10" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>1</v>
-      </c>
-      <c r="R10" s="3">
-        <v>1</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O11" s="3">
+        <v>6</v>
+      </c>
+      <c r="P11" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>5</v>
+      </c>
+      <c r="R11" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -1232,7 +1215,7 @@
         <v>25</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -1246,7 +1229,7 @@
         <v>26</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
@@ -1257,10 +1240,10 @@
         <v>28</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
@@ -1271,10 +1254,10 @@
         <v>27</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
@@ -1285,16 +1268,16 @@
         <v>28</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J16" s="3">
         <v>0.1</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L16" s="3">
         <v>0.1</v>
@@ -1307,39 +1290,39 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19" s="8"/>
       <c r="J19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="K19" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="L19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="O19" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -1347,19 +1330,19 @@
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="F20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="I20" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J20" s="3">
         <v>10</v>
@@ -1393,13 +1376,13 @@
         <v>6.25</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="I21" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J21" s="3">
         <v>8</v>
@@ -1478,7 +1461,7 @@
         <v>13</v>
       </c>
       <c r="B23" s="6">
-        <f>H4</f>
+        <f>H5</f>
         <v>5</v>
       </c>
       <c r="C23" s="6">
@@ -1490,7 +1473,7 @@
         <v>3.84</v>
       </c>
       <c r="E23" s="3">
-        <f>L4*$J$16</f>
+        <f>L5*$J$16</f>
         <v>6.4</v>
       </c>
       <c r="F23" s="3">
@@ -1507,7 +1490,7 @@
         <v>31</v>
       </c>
       <c r="B24" s="6">
-        <f>H5</f>
+        <f t="shared" ref="B24:B26" si="5">H7</f>
         <v>0.5</v>
       </c>
       <c r="C24" s="6"/>
@@ -1524,7 +1507,7 @@
         <v>7</v>
       </c>
       <c r="B25" s="6">
-        <f>H6</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="C25" s="6">
@@ -1536,7 +1519,7 @@
         <v>6</v>
       </c>
       <c r="E25" s="3">
-        <f>L6*$J$16</f>
+        <f>L8*$J$16</f>
         <v>10</v>
       </c>
       <c r="F25" s="3">
@@ -1553,7 +1536,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="6">
-        <f>H7</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="C26" s="6">
@@ -1565,7 +1548,7 @@
         <v>6</v>
       </c>
       <c r="E26" s="3">
-        <f>L7*$J$16</f>
+        <f>L9*$J$16</f>
         <v>10</v>
       </c>
       <c r="F26" s="3">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\GunBattleRoyale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC1B80A-1A74-4213-AF3C-97C8E0DCDEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2429F932-B661-483D-9922-9C320DDEC74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
   <si>
     <t>载弹</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -685,7 +685,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -784,11 +784,11 @@
         <v>5</v>
       </c>
       <c r="L2" s="3">
-        <f>J2*K2</f>
+        <f t="shared" ref="L2:L7" si="0">J2*K2</f>
         <v>25</v>
       </c>
       <c r="M2" s="3">
-        <f>20/D2*I2</f>
+        <f t="shared" ref="M2:M7" si="1">20/D2*I2</f>
         <v>25</v>
       </c>
       <c r="O2" s="3">
@@ -836,11 +836,11 @@
         <v>5</v>
       </c>
       <c r="L3" s="3">
-        <f>J3*K3</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="M3" s="3">
-        <f>20/D3*I3</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="O3" s="3">
@@ -882,11 +882,11 @@
         <v>5</v>
       </c>
       <c r="L4" s="3">
-        <f>J4*K4</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="M4" s="3">
-        <f>20/D4*I4</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
@@ -925,11 +925,11 @@
         <v>8</v>
       </c>
       <c r="L5" s="3">
-        <f>J5*K5</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="M5" s="3">
-        <f>20/D5*I5</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="O5" s="3">
@@ -980,11 +980,11 @@
         <v>8</v>
       </c>
       <c r="L6" s="3">
-        <f>J6*K6</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="M6" s="3">
-        <f>20/D6*I6</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="N6" s="3" t="s">
@@ -1032,11 +1032,11 @@
         <v>8</v>
       </c>
       <c r="L7" s="3">
-        <f>J7*K7</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="M7" s="3">
-        <f>20/D7*I7</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8" s="3">
         <v>12</v>
@@ -1060,13 +1060,13 @@
         <v>3</v>
       </c>
       <c r="G8" s="3">
-        <v>6.66</v>
+        <v>6</v>
       </c>
       <c r="H8" s="3">
         <v>10</v>
       </c>
       <c r="I8" s="3">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J8" s="3">
         <v>10</v>
@@ -1075,12 +1075,15 @@
         <v>10</v>
       </c>
       <c r="L8" s="3">
-        <f t="shared" ref="L8:L9" si="0">J8*K8</f>
+        <f t="shared" ref="L8:L9" si="2">J8*K8</f>
         <v>100</v>
       </c>
       <c r="M8" s="3">
-        <f t="shared" ref="M8:M10" si="1">20/D8*I8</f>
-        <v>15</v>
+        <f t="shared" ref="M8:M10" si="3">20/D8*I8</f>
+        <v>10</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="O8" s="3">
         <v>1</v>
@@ -1106,7 +1109,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="3">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E9" s="3">
         <v>4</v>
@@ -1115,13 +1118,13 @@
         <v>1</v>
       </c>
       <c r="G9" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H9" s="3">
         <v>10</v>
       </c>
       <c r="I9" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J9" s="3">
         <v>10</v>
@@ -1130,11 +1133,11 @@
         <v>10</v>
       </c>
       <c r="L9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="M9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="N9" s="3" t="s">
@@ -1144,6 +1147,9 @@
         <v>1</v>
       </c>
       <c r="P9" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="3">
         <v>1</v>
       </c>
       <c r="R9" s="3">
@@ -1183,7 +1189,7 @@
         <v>100</v>
       </c>
       <c r="M10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="N10" s="3" t="s">
@@ -1198,7 +1204,7 @@
         <v>6</v>
       </c>
       <c r="Q11" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R11" s="3">
         <v>4</v>
@@ -1412,11 +1418,11 @@
         <v>2.5</v>
       </c>
       <c r="C22" s="6">
-        <f t="shared" ref="C22:C26" si="2">B22/2</f>
+        <f t="shared" ref="C22:C26" si="4">B22/2</f>
         <v>1.25</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" ref="D22:D26" si="3">E22*0.6</f>
+        <f t="shared" ref="D22:D26" si="5">E22*0.6</f>
         <v>1.5</v>
       </c>
       <c r="E22" s="3">
@@ -1436,23 +1442,23 @@
         <v>80</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" ref="K22:O22" si="4">K20*K21</f>
+        <f t="shared" ref="K22:O22" si="6">K20*K21</f>
         <v>40</v>
       </c>
       <c r="L22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="M22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="N22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="O22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
     </row>
@@ -1465,11 +1471,11 @@
         <v>5</v>
       </c>
       <c r="C23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.84</v>
       </c>
       <c r="E23" s="3">
@@ -1490,12 +1496,12 @@
         <v>31</v>
       </c>
       <c r="B24" s="6">
-        <f t="shared" ref="B24:B26" si="5">H7</f>
+        <f t="shared" ref="B24:B26" si="7">H7</f>
         <v>0.5</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
       <c r="E24" s="3">
@@ -1507,15 +1513,15 @@
         <v>7</v>
       </c>
       <c r="B25" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="C25" s="6">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="D25" s="3">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="C25" s="6">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="D25" s="3">
-        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="E25" s="3">
@@ -1536,15 +1542,15 @@
         <v>8</v>
       </c>
       <c r="B26" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="C26" s="6">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="D26" s="3">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="C26" s="6">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="D26" s="3">
-        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="E26" s="3">
